--- a/resources/GIL3/Notes_ApresRats.xlsx
+++ b/resources/GIL3/Notes_ApresRats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GIL3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAD0089-7EA9-4B10-873A-82465D96E172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4303EF-2475-4A66-AEEF-D5223BA35943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D287D43-808E-45B3-A5BA-475A051756AA}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>CNE</t>
   </si>
@@ -61,64 +61,304 @@
     <t>Note_GIL56</t>
   </si>
   <si>
-    <t>GIL3_FN1</t>
-  </si>
-  <si>
-    <t>GIL3_LN1</t>
-  </si>
-  <si>
-    <t>GIL3_FN2</t>
-  </si>
-  <si>
-    <t>GIL3_LN2</t>
-  </si>
-  <si>
-    <t>GIL3_FN3</t>
-  </si>
-  <si>
-    <t>GIL3_LN3</t>
-  </si>
-  <si>
-    <t>GIL3_FN4</t>
-  </si>
-  <si>
-    <t>GIL3_LN4</t>
-  </si>
-  <si>
-    <t>GIL3_FN5</t>
-  </si>
-  <si>
-    <t>GIL3_LN5</t>
-  </si>
-  <si>
-    <t>GIL3_FN6</t>
-  </si>
-  <si>
-    <t>GIL3_LN6</t>
-  </si>
-  <si>
-    <t>GIL3_FN7</t>
-  </si>
-  <si>
-    <t>GIL3_LN7</t>
-  </si>
-  <si>
-    <t>GIL3_FN8</t>
-  </si>
-  <si>
-    <t>GIL3_LN8</t>
-  </si>
-  <si>
-    <t>GIL3_FN9</t>
-  </si>
-  <si>
-    <t>GIL3_LN9</t>
-  </si>
-  <si>
-    <t>GIL3_FN10</t>
-  </si>
-  <si>
-    <t>GIL3_LN10</t>
+    <t>Graham Holland</t>
+  </si>
+  <si>
+    <t>Astra Barrera</t>
+  </si>
+  <si>
+    <t>Beverly Ramirez</t>
+  </si>
+  <si>
+    <t>Noble Dudley</t>
+  </si>
+  <si>
+    <t>Christopher Christensen</t>
+  </si>
+  <si>
+    <t>Mariko Boyer</t>
+  </si>
+  <si>
+    <t>Kirby Beach</t>
+  </si>
+  <si>
+    <t>Hilda Coleman</t>
+  </si>
+  <si>
+    <t>Harlan Cross</t>
+  </si>
+  <si>
+    <t>Oscar Buckley</t>
+  </si>
+  <si>
+    <t>Joshua Mcknight</t>
+  </si>
+  <si>
+    <t>Wang Blackburn</t>
+  </si>
+  <si>
+    <t>Chase Merrill</t>
+  </si>
+  <si>
+    <t>Xantha Velazquez</t>
+  </si>
+  <si>
+    <t>Valentine Walls</t>
+  </si>
+  <si>
+    <t>Brooke Mclaughlin</t>
+  </si>
+  <si>
+    <t>Nasim Valdez</t>
+  </si>
+  <si>
+    <t>Quail Vincent</t>
+  </si>
+  <si>
+    <t>Mercedes Morris</t>
+  </si>
+  <si>
+    <t>Abraham Frank</t>
+  </si>
+  <si>
+    <t>Randall Orr</t>
+  </si>
+  <si>
+    <t>Piper Duncan</t>
+  </si>
+  <si>
+    <t>Wynter Day</t>
+  </si>
+  <si>
+    <t>Denise Bradford</t>
+  </si>
+  <si>
+    <t>Vanna Pollard</t>
+  </si>
+  <si>
+    <t>Harrison Best</t>
+  </si>
+  <si>
+    <t>Chandler Frederick</t>
+  </si>
+  <si>
+    <t>Martina Lancaster</t>
+  </si>
+  <si>
+    <t>Kane Clayton</t>
+  </si>
+  <si>
+    <t>Ivory Alvarado</t>
+  </si>
+  <si>
+    <t>Gillian Lowe</t>
+  </si>
+  <si>
+    <t>Walker Rich</t>
+  </si>
+  <si>
+    <t>Melinda Nielsen</t>
+  </si>
+  <si>
+    <t>Rhona Davidson</t>
+  </si>
+  <si>
+    <t>Galvin Daniels</t>
+  </si>
+  <si>
+    <t>Lani Ferrell</t>
+  </si>
+  <si>
+    <t>Clarke Le</t>
+  </si>
+  <si>
+    <t>Bryar Hyde</t>
+  </si>
+  <si>
+    <t>Jaden Strong</t>
+  </si>
+  <si>
+    <t>Vladimir Lewis</t>
+  </si>
+  <si>
+    <t>Ann Wilkerson</t>
+  </si>
+  <si>
+    <t>Preston Melendez</t>
+  </si>
+  <si>
+    <t>Germane Riddle</t>
+  </si>
+  <si>
+    <t>Kamal Wyatt</t>
+  </si>
+  <si>
+    <t>Julian Mcneil</t>
+  </si>
+  <si>
+    <t>George Garner</t>
+  </si>
+  <si>
+    <t>Gabriel Sims</t>
+  </si>
+  <si>
+    <t>Hamilton Hawkins</t>
+  </si>
+  <si>
+    <t>Isabella Henderson</t>
+  </si>
+  <si>
+    <t>Keith Hammond</t>
+  </si>
+  <si>
+    <t>Summer Vasquez</t>
+  </si>
+  <si>
+    <t>Calista Wolfe</t>
+  </si>
+  <si>
+    <t>Naomi Little</t>
+  </si>
+  <si>
+    <t>Stuart Rogers</t>
+  </si>
+  <si>
+    <t>Melanie Crawford</t>
+  </si>
+  <si>
+    <t>Solomon Harrison</t>
+  </si>
+  <si>
+    <t>Cullen Hudson</t>
+  </si>
+  <si>
+    <t>TaShya Klein</t>
+  </si>
+  <si>
+    <t>Reese Palmer</t>
+  </si>
+  <si>
+    <t>Sade Duffy</t>
+  </si>
+  <si>
+    <t>Leila Boyer</t>
+  </si>
+  <si>
+    <t>Honorato Tillman</t>
+  </si>
+  <si>
+    <t>Portia Byers</t>
+  </si>
+  <si>
+    <t>Tyler Middleton</t>
+  </si>
+  <si>
+    <t>Ursula Moss</t>
+  </si>
+  <si>
+    <t>Lance Flynn</t>
+  </si>
+  <si>
+    <t>Silas Mckay</t>
+  </si>
+  <si>
+    <t>Ian Brown</t>
+  </si>
+  <si>
+    <t>Abdul Wilkerson</t>
+  </si>
+  <si>
+    <t>Hedy Frazier</t>
+  </si>
+  <si>
+    <t>Celeste Franks</t>
+  </si>
+  <si>
+    <t>Camilla Trevino</t>
+  </si>
+  <si>
+    <t>Carter Wheeler</t>
+  </si>
+  <si>
+    <t>Shafira Mccray</t>
+  </si>
+  <si>
+    <t>Philip Livingston</t>
+  </si>
+  <si>
+    <t>Maggy Terry</t>
+  </si>
+  <si>
+    <t>Venus Sykes</t>
+  </si>
+  <si>
+    <t>Kiara Barlow</t>
+  </si>
+  <si>
+    <t>Griffin Davenport</t>
+  </si>
+  <si>
+    <t>Gwendolyn Randolph</t>
+  </si>
+  <si>
+    <t>Paloma Macdonald</t>
+  </si>
+  <si>
+    <t>Alfreda Lyons</t>
+  </si>
+  <si>
+    <t>Harrison Reynolds</t>
+  </si>
+  <si>
+    <t>Moana Walter</t>
+  </si>
+  <si>
+    <t>Carson Mercado</t>
+  </si>
+  <si>
+    <t>Colleen Steele</t>
+  </si>
+  <si>
+    <t>Rhonda Strong</t>
+  </si>
+  <si>
+    <t>Hasad Deleon</t>
+  </si>
+  <si>
+    <t>Linda Huffman</t>
+  </si>
+  <si>
+    <t>Kennan Gardner</t>
+  </si>
+  <si>
+    <t>Tiger Ross</t>
+  </si>
+  <si>
+    <t>Wanda Alexander</t>
+  </si>
+  <si>
+    <t>Colt Brown</t>
+  </si>
+  <si>
+    <t>Shana Chang</t>
+  </si>
+  <si>
+    <t>Ahmed House</t>
+  </si>
+  <si>
+    <t>Aristotle Gilliam</t>
+  </si>
+  <si>
+    <t>Mollie Ortiz</t>
+  </si>
+  <si>
+    <t>Destiny Armstrong</t>
+  </si>
+  <si>
+    <t>Ebony Jenkins</t>
+  </si>
+  <si>
+    <t>Cameron Sears</t>
   </si>
 </sst>
 </file>
@@ -142,7 +382,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,25 +405,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F91CE5F-8BA2-4FD1-9394-E4EC1707725C}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,292 +765,1501 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>17000011</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>17000051</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
       <c r="D2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>17000012</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <f>A2+1</f>
+        <v>17000052</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
         <v>12</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>17000013</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
+        <f t="shared" ref="A4:A51" si="0">A3+1</f>
+        <v>17000053</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
         <v>12</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>17000014</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>17000054</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>17000015</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>17000055</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>17000016</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>17000056</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>14</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>17000017</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>17000057</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>17000018</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>17000058</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I9">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>17000019</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>17000059</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>17000020</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>17000060</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>17000061</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>17000062</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>17000063</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
         <v>12</v>
       </c>
-      <c r="F11">
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>17000064</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>17000065</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>17000066</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17000067</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
         <v>12</v>
       </c>
-      <c r="G11">
-        <v>13</v>
-      </c>
-      <c r="H11">
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
         <v>18</v>
       </c>
-      <c r="I11">
-        <v>13</v>
+      <c r="I18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17000068</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>17000069</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>17000070</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>17000071</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>17000072</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>17000073</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>14</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>17000074</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>15</v>
+      </c>
+      <c r="I25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>17000075</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>12</v>
+      </c>
+      <c r="I26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>17000076</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>17000077</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>17000078</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>17000079</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>17000080</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>17000081</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>17000082</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>17000083</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>17000084</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>16</v>
+      </c>
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>17000085</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>17000086</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>17</v>
+      </c>
+      <c r="I37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>17000087</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>17</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>17000088</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>17000089</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>13</v>
+      </c>
+      <c r="I40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>17000090</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41">
+        <v>19</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>17</v>
+      </c>
+      <c r="I41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>17000091</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>17000092</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>18</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>17000093</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>14</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>17000094</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>13</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>12</v>
+      </c>
+      <c r="I45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>17000095</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>17</v>
+      </c>
+      <c r="H46">
+        <v>15</v>
+      </c>
+      <c r="I46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>17000096</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>17</v>
+      </c>
+      <c r="E47">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>16</v>
+      </c>
+      <c r="H47">
+        <v>16</v>
+      </c>
+      <c r="I47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>17000097</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>17</v>
+      </c>
+      <c r="F48">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>17000098</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <v>17</v>
+      </c>
+      <c r="I49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>17000099</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>14</v>
+      </c>
+      <c r="G50">
+        <v>14</v>
+      </c>
+      <c r="H50">
+        <v>18</v>
+      </c>
+      <c r="I50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>17000100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>13</v>
+      </c>
+      <c r="F51">
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>16</v>
+      </c>
+      <c r="I51">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/resources/GIL3/Notes_ApresRats.xlsx
+++ b/resources/GIL3/Notes_ApresRats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GIL3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4303EF-2475-4A66-AEEF-D5223BA35943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7648B882-4754-4B25-A981-48D05A80ABB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D287D43-808E-45B3-A5BA-475A051756AA}"/>
   </bookViews>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F91CE5F-8BA2-4FD1-9394-E4EC1707725C}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -774,22 +774,22 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>17</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -840,13 +840,13 @@
         <v>19</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>15</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -864,10 +864,10 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -900,7 +900,7 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -909,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -930,16 +930,16 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>14</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -960,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>13</v>
@@ -990,13 +990,13 @@
         <v>15</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>13</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -1029,7 +1029,7 @@
         <v>13</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1050,7 +1050,7 @@
         <v>13</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1077,13 +1077,13 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>18</v>
@@ -1104,16 +1104,16 @@
         <v>32</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H13">
         <v>14</v>
@@ -1134,7 +1134,7 @@
         <v>34</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>14</v>
@@ -1146,10 +1146,10 @@
         <v>15</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1164,10 +1164,10 @@
         <v>36</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -1179,7 +1179,7 @@
         <v>18</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1194,7 +1194,7 @@
         <v>38</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -1209,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1224,10 +1224,10 @@
         <v>40</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -1269,7 +1269,7 @@
         <v>18</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1317,10 +1317,10 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>17</v>
@@ -1347,10 +1347,10 @@
         <v>14</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -1377,10 +1377,10 @@
         <v>18</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>14</v>
@@ -1404,16 +1404,16 @@
         <v>52</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F23">
         <v>12</v>
       </c>
       <c r="G23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <v>19</v>
@@ -1434,13 +1434,13 @@
         <v>54</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>15</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24">
         <v>16</v>
@@ -1467,10 +1467,10 @@
         <v>13</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -1500,7 +1500,7 @@
         <v>16</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26">
         <v>16</v>
@@ -1524,7 +1524,7 @@
         <v>60</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>19</v>
@@ -1536,7 +1536,7 @@
         <v>16</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I27">
         <v>15</v>
@@ -1557,10 +1557,10 @@
         <v>16</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28">
         <v>16</v>
@@ -1569,7 +1569,7 @@
         <v>8</v>
       </c>
       <c r="I28">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1590,7 +1590,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29">
         <v>15</v>
@@ -1617,13 +1617,13 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30">
         <v>10</v>
@@ -1656,10 +1656,10 @@
         <v>13</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I31">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1674,10 +1674,10 @@
         <v>70</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F32">
         <v>13</v>
@@ -1689,7 +1689,7 @@
         <v>14</v>
       </c>
       <c r="I32">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1710,7 +1710,7 @@
         <v>16</v>
       </c>
       <c r="F33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>18</v>
@@ -1740,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="F34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34">
         <v>15</v>
@@ -1749,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="I34">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1764,13 +1764,13 @@
         <v>76</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>16</v>
@@ -1779,7 +1779,7 @@
         <v>18</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1800,7 +1800,7 @@
         <v>7</v>
       </c>
       <c r="F36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>14</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="I36">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1824,13 +1824,13 @@
         <v>80</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <v>12</v>
@@ -1857,10 +1857,10 @@
         <v>13</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38">
         <v>17</v>
@@ -1869,7 +1869,7 @@
         <v>8</v>
       </c>
       <c r="I38">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1890,7 +1890,7 @@
         <v>17</v>
       </c>
       <c r="F39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39">
         <v>17</v>
@@ -1917,10 +1917,10 @@
         <v>16</v>
       </c>
       <c r="E40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F40">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40">
         <v>15</v>
@@ -1947,7 +1947,7 @@
         <v>19</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41">
         <v>13</v>
@@ -1974,22 +1974,22 @@
         <v>90</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <v>12</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I42">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -2037,7 +2037,7 @@
         <v>14</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -2046,10 +2046,10 @@
         <v>14</v>
       </c>
       <c r="H44">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I44">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -2070,7 +2070,7 @@
         <v>13</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G45">
         <v>14</v>
@@ -2079,7 +2079,7 @@
         <v>12</v>
       </c>
       <c r="I45">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -2094,7 +2094,7 @@
         <v>98</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E46">
         <v>12</v>
@@ -2130,7 +2130,7 @@
         <v>14</v>
       </c>
       <c r="F47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47">
         <v>16</v>
@@ -2139,7 +2139,7 @@
         <v>16</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2154,7 +2154,7 @@
         <v>102</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>17</v>
@@ -2166,7 +2166,7 @@
         <v>12</v>
       </c>
       <c r="H48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I48">
         <v>14</v>
@@ -2184,13 +2184,13 @@
         <v>104</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49">
         <v>14</v>
@@ -2217,7 +2217,7 @@
         <v>6</v>
       </c>
       <c r="E50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50">
         <v>14</v>
@@ -2244,7 +2244,7 @@
         <v>108</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>13</v>
